--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adipoq-Adipor2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adipoq-Adipor2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Adipor2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.299053666666667</v>
+        <v>0.03879333333333333</v>
       </c>
       <c r="H2">
-        <v>3.897161</v>
+        <v>0.11638</v>
       </c>
       <c r="I2">
-        <v>0.9617761002713197</v>
+        <v>0.02713425815502433</v>
       </c>
       <c r="J2">
-        <v>0.9617761002713197</v>
+        <v>0.02713425815502432</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.42898833333334</v>
+        <v>24.08118766666666</v>
       </c>
       <c r="N2">
-        <v>64.28696500000001</v>
+        <v>72.24356299999999</v>
       </c>
       <c r="O2">
-        <v>0.4486719266750174</v>
+        <v>0.4666175175065463</v>
       </c>
       <c r="P2">
-        <v>0.4486719266750175</v>
+        <v>0.4666175175065463</v>
       </c>
       <c r="Q2">
-        <v>27.83740586737389</v>
+        <v>0.9341895402155554</v>
       </c>
       <c r="R2">
-        <v>250.536652806365</v>
+        <v>8.407705861939998</v>
       </c>
       <c r="S2">
-        <v>0.4315219359387177</v>
+        <v>0.01266132017967921</v>
       </c>
       <c r="T2">
-        <v>0.4315219359387178</v>
+        <v>0.01266132017967921</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.299053666666667</v>
+        <v>0.03879333333333333</v>
       </c>
       <c r="H3">
-        <v>3.897161</v>
+        <v>0.11638</v>
       </c>
       <c r="I3">
-        <v>0.9617761002713197</v>
+        <v>0.02713425815502433</v>
       </c>
       <c r="J3">
-        <v>0.9617761002713197</v>
+        <v>0.02713425815502432</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>12.590487</v>
       </c>
       <c r="O3">
-        <v>0.08787159356592367</v>
+        <v>0.08132131838705747</v>
       </c>
       <c r="P3">
-        <v>0.08787159356592367</v>
+        <v>0.08132131838705747</v>
       </c>
       <c r="Q3">
-        <v>5.451906100823</v>
+        <v>0.16280898634</v>
       </c>
       <c r="R3">
-        <v>49.06715490740699</v>
+        <v>1.46528087706</v>
       </c>
       <c r="S3">
-        <v>0.08451279858446045</v>
+        <v>0.002206593646621344</v>
       </c>
       <c r="T3">
-        <v>0.08451279858446045</v>
+        <v>0.002206593646621344</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.299053666666667</v>
+        <v>0.03879333333333333</v>
       </c>
       <c r="H4">
-        <v>3.897161</v>
+        <v>0.11638</v>
       </c>
       <c r="I4">
-        <v>0.9617761002713197</v>
+        <v>0.02713425815502433</v>
       </c>
       <c r="J4">
-        <v>0.9617761002713197</v>
+        <v>0.02713425815502432</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.538022666666668</v>
+        <v>12.846674</v>
       </c>
       <c r="N4">
-        <v>25.614068</v>
+        <v>38.540022</v>
       </c>
       <c r="O4">
-        <v>0.178765839070874</v>
+        <v>0.2489280517668776</v>
       </c>
       <c r="P4">
-        <v>0.178765839070874</v>
+        <v>0.2489280517668776</v>
       </c>
       <c r="Q4">
-        <v>11.09134965121645</v>
+        <v>0.4983653067066667</v>
       </c>
       <c r="R4">
-        <v>99.82214686094801</v>
+        <v>4.48528776036</v>
       </c>
       <c r="S4">
-        <v>0.1719327115633155</v>
+        <v>0.006754478018669717</v>
       </c>
       <c r="T4">
-        <v>0.1719327115633155</v>
+        <v>0.006754478018669715</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.299053666666667</v>
+        <v>0.03879333333333333</v>
       </c>
       <c r="H5">
-        <v>3.897161</v>
+        <v>0.11638</v>
       </c>
       <c r="I5">
-        <v>0.9617761002713197</v>
+        <v>0.02713425815502433</v>
       </c>
       <c r="J5">
-        <v>0.9617761002713197</v>
+        <v>0.02713425815502432</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.686798333333333</v>
+        <v>2.405463</v>
       </c>
       <c r="N5">
-        <v>8.060395</v>
+        <v>7.216388999999999</v>
       </c>
       <c r="O5">
-        <v>0.05625515148229002</v>
+        <v>0.0466102913631426</v>
       </c>
       <c r="P5">
-        <v>0.05625515148229003</v>
+        <v>0.0466102913631426</v>
       </c>
       <c r="Q5">
-        <v>3.490295226510555</v>
+        <v>0.09331592797999999</v>
       </c>
       <c r="R5">
-        <v>31.412657038595</v>
+        <v>0.8398433518199999</v>
       </c>
       <c r="S5">
-        <v>0.05410486021280925</v>
+        <v>0.001264735678528412</v>
       </c>
       <c r="T5">
-        <v>0.05410486021280925</v>
+        <v>0.001264735678528412</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.299053666666667</v>
+        <v>0.03879333333333333</v>
       </c>
       <c r="H6">
-        <v>3.897161</v>
+        <v>0.11638</v>
       </c>
       <c r="I6">
-        <v>0.9617761002713197</v>
+        <v>0.02713425815502433</v>
       </c>
       <c r="J6">
-        <v>0.9617761002713197</v>
+        <v>0.02713425815502432</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.91029133333333</v>
+        <v>8.077826666666667</v>
       </c>
       <c r="N6">
-        <v>32.730874</v>
+        <v>24.23348</v>
       </c>
       <c r="O6">
-        <v>0.2284354892058947</v>
+        <v>0.156522820976376</v>
       </c>
       <c r="P6">
-        <v>0.2284354892058948</v>
+        <v>0.156522820976376</v>
       </c>
       <c r="Q6">
-        <v>14.17305396096822</v>
+        <v>0.3133658224888889</v>
       </c>
       <c r="R6">
-        <v>127.557485648714</v>
+        <v>2.8202924024</v>
       </c>
       <c r="S6">
-        <v>0.2197037939720166</v>
+        <v>0.004247130631525644</v>
       </c>
       <c r="T6">
-        <v>0.2197037939720166</v>
+        <v>0.004247130631525643</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -850,16 +850,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.05162833333333333</v>
+        <v>1.299053666666667</v>
       </c>
       <c r="H7">
-        <v>0.154885</v>
+        <v>3.897161</v>
       </c>
       <c r="I7">
-        <v>0.03822389972868027</v>
+        <v>0.9086318323225019</v>
       </c>
       <c r="J7">
-        <v>0.03822389972868027</v>
+        <v>0.9086318323225017</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.42898833333334</v>
+        <v>24.08118766666666</v>
       </c>
       <c r="N7">
-        <v>64.28696500000001</v>
+        <v>72.24356299999999</v>
       </c>
       <c r="O7">
-        <v>0.4486719266750174</v>
+        <v>0.4666175175065463</v>
       </c>
       <c r="P7">
-        <v>0.4486719266750175</v>
+        <v>0.4666175175065463</v>
       </c>
       <c r="Q7">
-        <v>1.106342952669445</v>
+        <v>31.28275513607144</v>
       </c>
       <c r="R7">
-        <v>9.957086574025</v>
+        <v>281.5447962246429</v>
       </c>
       <c r="S7">
-        <v>0.01714999073629965</v>
+        <v>0.4239835299257503</v>
       </c>
       <c r="T7">
-        <v>0.01714999073629966</v>
+        <v>0.4239835299257502</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -912,16 +912,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.05162833333333333</v>
+        <v>1.299053666666667</v>
       </c>
       <c r="H8">
-        <v>0.154885</v>
+        <v>3.897161</v>
       </c>
       <c r="I8">
-        <v>0.03822389972868027</v>
+        <v>0.9086318323225019</v>
       </c>
       <c r="J8">
-        <v>0.03822389972868027</v>
+        <v>0.9086318323225017</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>12.590487</v>
       </c>
       <c r="O8">
-        <v>0.08787159356592367</v>
+        <v>0.08132131838705747</v>
       </c>
       <c r="P8">
-        <v>0.08787159356592367</v>
+        <v>0.08132131838705747</v>
       </c>
       <c r="Q8">
-        <v>0.216675286555</v>
+        <v>5.451906100823</v>
       </c>
       <c r="R8">
-        <v>1.950077578995</v>
+        <v>49.06715490740699</v>
       </c>
       <c r="S8">
-        <v>0.003358794981463213</v>
+        <v>0.0738911385329136</v>
       </c>
       <c r="T8">
-        <v>0.003358794981463213</v>
+        <v>0.07389113853291358</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -974,16 +974,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.05162833333333333</v>
+        <v>1.299053666666667</v>
       </c>
       <c r="H9">
-        <v>0.154885</v>
+        <v>3.897161</v>
       </c>
       <c r="I9">
-        <v>0.03822389972868027</v>
+        <v>0.9086318323225019</v>
       </c>
       <c r="J9">
-        <v>0.03822389972868027</v>
+        <v>0.9086318323225017</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.538022666666668</v>
+        <v>12.846674</v>
       </c>
       <c r="N9">
-        <v>25.614068</v>
+        <v>38.540022</v>
       </c>
       <c r="O9">
-        <v>0.178765839070874</v>
+        <v>0.2489280517668776</v>
       </c>
       <c r="P9">
-        <v>0.178765839070874</v>
+        <v>0.2489280517668776</v>
       </c>
       <c r="Q9">
-        <v>0.4408038802422223</v>
+        <v>16.68851896417133</v>
       </c>
       <c r="R9">
-        <v>3.96723492218</v>
+        <v>150.196670677542</v>
       </c>
       <c r="S9">
-        <v>0.006833127507558484</v>
+        <v>0.2261839517934086</v>
       </c>
       <c r="T9">
-        <v>0.006833127507558484</v>
+        <v>0.2261839517934086</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1036,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.05162833333333333</v>
+        <v>1.299053666666667</v>
       </c>
       <c r="H10">
-        <v>0.154885</v>
+        <v>3.897161</v>
       </c>
       <c r="I10">
-        <v>0.03822389972868027</v>
+        <v>0.9086318323225019</v>
       </c>
       <c r="J10">
-        <v>0.03822389972868027</v>
+        <v>0.9086318323225017</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.686798333333333</v>
+        <v>2.405463</v>
       </c>
       <c r="N10">
-        <v>8.060395</v>
+        <v>7.216388999999999</v>
       </c>
       <c r="O10">
-        <v>0.05625515148229002</v>
+        <v>0.0466102913631426</v>
       </c>
       <c r="P10">
-        <v>0.05625515148229003</v>
+        <v>0.0466102913631426</v>
       </c>
       <c r="Q10">
-        <v>0.1387149199527778</v>
+        <v>3.124825530181</v>
       </c>
       <c r="R10">
-        <v>1.248434279575</v>
+        <v>28.123429771629</v>
       </c>
       <c r="S10">
-        <v>0.002150291269480774</v>
+        <v>0.04235159444637794</v>
       </c>
       <c r="T10">
-        <v>0.002150291269480774</v>
+        <v>0.04235159444637794</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1098,16 +1098,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.05162833333333333</v>
+        <v>1.299053666666667</v>
       </c>
       <c r="H11">
-        <v>0.154885</v>
+        <v>3.897161</v>
       </c>
       <c r="I11">
-        <v>0.03822389972868027</v>
+        <v>0.9086318323225019</v>
       </c>
       <c r="J11">
-        <v>0.03822389972868027</v>
+        <v>0.9086318323225017</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,648 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.91029133333333</v>
+        <v>8.077826666666667</v>
       </c>
       <c r="N11">
-        <v>32.730874</v>
+        <v>24.23348</v>
       </c>
       <c r="O11">
-        <v>0.2284354892058947</v>
+        <v>0.156522820976376</v>
       </c>
       <c r="P11">
-        <v>0.2284354892058948</v>
+        <v>0.156522820976376</v>
       </c>
       <c r="Q11">
-        <v>0.5632801577211111</v>
+        <v>10.49353035003111</v>
       </c>
       <c r="R11">
-        <v>5.06952141949</v>
+        <v>94.44177315027999</v>
       </c>
       <c r="S11">
-        <v>0.008731695233878145</v>
+        <v>0.1422216176240515</v>
       </c>
       <c r="T11">
-        <v>0.008731695233878147</v>
+        <v>0.1422216176240514</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.06760233333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.202807</v>
+      </c>
+      <c r="I12">
+        <v>0.04728490714595308</v>
+      </c>
+      <c r="J12">
+        <v>0.04728490714595306</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>24.08118766666666</v>
+      </c>
+      <c r="N12">
+        <v>72.24356299999999</v>
+      </c>
+      <c r="O12">
+        <v>0.4666175175065463</v>
+      </c>
+      <c r="P12">
+        <v>0.4666175175065463</v>
+      </c>
+      <c r="Q12">
+        <v>1.627944475704555</v>
+      </c>
+      <c r="R12">
+        <v>14.651500281341</v>
+      </c>
+      <c r="S12">
+        <v>0.02206396598797218</v>
+      </c>
+      <c r="T12">
+        <v>0.02206396598797217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.06760233333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.202807</v>
+      </c>
+      <c r="I13">
+        <v>0.04728490714595308</v>
+      </c>
+      <c r="J13">
+        <v>0.04728490714595306</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.196829</v>
+      </c>
+      <c r="N13">
+        <v>12.590487</v>
+      </c>
+      <c r="O13">
+        <v>0.08132131838705747</v>
+      </c>
+      <c r="P13">
+        <v>0.08132131838705747</v>
+      </c>
+      <c r="Q13">
+        <v>0.283715433001</v>
+      </c>
+      <c r="R13">
+        <v>2.553438897009</v>
+      </c>
+      <c r="S13">
+        <v>0.003845270988918499</v>
+      </c>
+      <c r="T13">
+        <v>0.003845270988918498</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.06760233333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.202807</v>
+      </c>
+      <c r="I14">
+        <v>0.04728490714595308</v>
+      </c>
+      <c r="J14">
+        <v>0.04728490714595306</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>12.846674</v>
+      </c>
+      <c r="N14">
+        <v>38.540022</v>
+      </c>
+      <c r="O14">
+        <v>0.2489280517668776</v>
+      </c>
+      <c r="P14">
+        <v>0.2489280517668776</v>
+      </c>
+      <c r="Q14">
+        <v>0.8684651379726667</v>
+      </c>
+      <c r="R14">
+        <v>7.816186241754</v>
+      </c>
+      <c r="S14">
+        <v>0.01177053981381981</v>
+      </c>
+      <c r="T14">
+        <v>0.0117705398138198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.06760233333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.202807</v>
+      </c>
+      <c r="I15">
+        <v>0.04728490714595308</v>
+      </c>
+      <c r="J15">
+        <v>0.04728490714595306</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.405463</v>
+      </c>
+      <c r="N15">
+        <v>7.216388999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.0466102913631426</v>
+      </c>
+      <c r="P15">
+        <v>0.0466102913631426</v>
+      </c>
+      <c r="Q15">
+        <v>0.162614911547</v>
+      </c>
+      <c r="R15">
+        <v>1.463534203923</v>
+      </c>
+      <c r="S15">
+        <v>0.002203963299152016</v>
+      </c>
+      <c r="T15">
+        <v>0.002203963299152016</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.06760233333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.202807</v>
+      </c>
+      <c r="I16">
+        <v>0.04728490714595308</v>
+      </c>
+      <c r="J16">
+        <v>0.04728490714595306</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>8.077826666666667</v>
+      </c>
+      <c r="N16">
+        <v>24.23348</v>
+      </c>
+      <c r="O16">
+        <v>0.156522820976376</v>
+      </c>
+      <c r="P16">
+        <v>0.156522820976376</v>
+      </c>
+      <c r="Q16">
+        <v>0.5460799309288888</v>
+      </c>
+      <c r="R16">
+        <v>4.91471937836</v>
+      </c>
+      <c r="S16">
+        <v>0.007401167056090577</v>
+      </c>
+      <c r="T16">
+        <v>0.007401167056090574</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.02423166666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.072695</v>
+      </c>
+      <c r="I17">
+        <v>0.01694900237652083</v>
+      </c>
+      <c r="J17">
+        <v>0.01694900237652082</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>24.08118766666666</v>
+      </c>
+      <c r="N17">
+        <v>72.24356299999999</v>
+      </c>
+      <c r="O17">
+        <v>0.4666175175065463</v>
+      </c>
+      <c r="P17">
+        <v>0.4666175175065463</v>
+      </c>
+      <c r="Q17">
+        <v>0.583527312476111</v>
+      </c>
+      <c r="R17">
+        <v>5.251745812284999</v>
+      </c>
+      <c r="S17">
+        <v>0.007908701413144701</v>
+      </c>
+      <c r="T17">
+        <v>0.0079087014131447</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.02423166666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.072695</v>
+      </c>
+      <c r="I18">
+        <v>0.01694900237652083</v>
+      </c>
+      <c r="J18">
+        <v>0.01694900237652082</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4.196829</v>
+      </c>
+      <c r="N18">
+        <v>12.590487</v>
+      </c>
+      <c r="O18">
+        <v>0.08132131838705747</v>
+      </c>
+      <c r="P18">
+        <v>0.08132131838705747</v>
+      </c>
+      <c r="Q18">
+        <v>0.101696161385</v>
+      </c>
+      <c r="R18">
+        <v>0.9152654524649999</v>
+      </c>
+      <c r="S18">
+        <v>0.001378315218604044</v>
+      </c>
+      <c r="T18">
+        <v>0.001378315218604043</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.02423166666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.072695</v>
+      </c>
+      <c r="I19">
+        <v>0.01694900237652083</v>
+      </c>
+      <c r="J19">
+        <v>0.01694900237652082</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>12.846674</v>
+      </c>
+      <c r="N19">
+        <v>38.540022</v>
+      </c>
+      <c r="O19">
+        <v>0.2489280517668776</v>
+      </c>
+      <c r="P19">
+        <v>0.2489280517668776</v>
+      </c>
+      <c r="Q19">
+        <v>0.3112963221433333</v>
+      </c>
+      <c r="R19">
+        <v>2.80166689929</v>
+      </c>
+      <c r="S19">
+        <v>0.004219082140979507</v>
+      </c>
+      <c r="T19">
+        <v>0.004219082140979506</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.02423166666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.072695</v>
+      </c>
+      <c r="I20">
+        <v>0.01694900237652083</v>
+      </c>
+      <c r="J20">
+        <v>0.01694900237652082</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2.405463</v>
+      </c>
+      <c r="N20">
+        <v>7.216388999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.0466102913631426</v>
+      </c>
+      <c r="P20">
+        <v>0.0466102913631426</v>
+      </c>
+      <c r="Q20">
+        <v>0.05828837759499999</v>
+      </c>
+      <c r="R20">
+        <v>0.5245953983549999</v>
+      </c>
+      <c r="S20">
+        <v>0.000789997939084232</v>
+      </c>
+      <c r="T20">
+        <v>0.0007899979390842318</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.02423166666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.072695</v>
+      </c>
+      <c r="I21">
+        <v>0.01694900237652083</v>
+      </c>
+      <c r="J21">
+        <v>0.01694900237652082</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>8.077826666666667</v>
+      </c>
+      <c r="N21">
+        <v>24.23348</v>
+      </c>
+      <c r="O21">
+        <v>0.156522820976376</v>
+      </c>
+      <c r="P21">
+        <v>0.156522820976376</v>
+      </c>
+      <c r="Q21">
+        <v>0.1957392031777778</v>
+      </c>
+      <c r="R21">
+        <v>1.7616528286</v>
+      </c>
+      <c r="S21">
+        <v>0.002652905664708341</v>
+      </c>
+      <c r="T21">
+        <v>0.00265290566470834</v>
       </c>
     </row>
   </sheetData>
